--- a/retail_dash/growth_table.xlsx
+++ b/retail_dash/growth_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gogat\Desktop\диплом\дашборд_данные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gogat\Desktop\retail_dash\dashboard_D\retail_dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755214F-2B3A-4B8D-9040-32673FD475B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F748EF-CF8B-45C6-9037-D245E0D15BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Названия строк</t>
   </si>
@@ -34,15 +34,9 @@
     <t>Моноблок/&lt;23/i5-R5</t>
   </si>
   <si>
-    <t>Моноблок/&lt;23/Old</t>
-  </si>
-  <si>
     <t>Моноблок/&gt;27/i7-R7</t>
   </si>
   <si>
-    <t>Моноблок/&gt;27/i9-R9</t>
-  </si>
-  <si>
     <t>Моноблок/24'/Beginning</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>Моноблок/24'/i7-R7</t>
   </si>
   <si>
-    <t>Моноблок/24'/Old</t>
-  </si>
-  <si>
     <t>Моноблок/27"/i3-R3</t>
   </si>
   <si>
@@ -65,18 +56,6 @@
   </si>
   <si>
     <t>Моноблок/27"/i7-R7</t>
-  </si>
-  <si>
-    <t>Моноблок/27"/i9-R9</t>
-  </si>
-  <si>
-    <t>Моноблок/27"/Beginning</t>
-  </si>
-  <si>
-    <t>Отсутствует</t>
-  </si>
-  <si>
-    <t>Общий итог</t>
   </si>
 </sst>
 </file>
@@ -439,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,25 +583,37 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-100</v>
+        <v>-31.147043642897138</v>
+      </c>
+      <c r="D5">
+        <v>-3132.1822600637502</v>
       </c>
       <c r="E5">
-        <v>-151.28988108815739</v>
+        <v>-81.529612681982925</v>
       </c>
       <c r="F5">
-        <v>-100</v>
+        <v>12.508228396157619</v>
+      </c>
+      <c r="G5">
+        <v>18.78915113809153</v>
       </c>
       <c r="H5">
-        <v>-100</v>
+        <v>81.226708484666304</v>
+      </c>
+      <c r="I5">
+        <v>-92.592720812170143</v>
       </c>
       <c r="J5">
-        <v>-413.63364977013549</v>
+        <v>2963.3163657429309</v>
       </c>
       <c r="K5">
-        <v>3.4548183119013358</v>
+        <v>4.8628305649922963</v>
       </c>
       <c r="L5">
-        <v>-100</v>
+        <v>65.966806177134529</v>
+      </c>
+      <c r="M5">
+        <v>-15.804275688583189</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -630,54 +621,75 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-31.147043642897138</v>
+        <v>1.9509046129349821</v>
       </c>
       <c r="D6">
-        <v>-3132.1822600637502</v>
+        <v>25.724571876995761</v>
       </c>
       <c r="E6">
-        <v>-81.529612681982925</v>
+        <v>-20.254580441158279</v>
       </c>
       <c r="F6">
-        <v>12.508228396157619</v>
+        <v>-4.0005395997821278</v>
       </c>
       <c r="G6">
-        <v>18.78915113809153</v>
+        <v>28.199270376517621</v>
       </c>
       <c r="H6">
-        <v>81.226708484666304</v>
+        <v>5.8734650714932473</v>
       </c>
       <c r="I6">
-        <v>-92.592720812170143</v>
+        <v>-16.436617828497539</v>
       </c>
       <c r="J6">
-        <v>2963.3163657429309</v>
+        <v>-1.571989912615843</v>
       </c>
       <c r="K6">
-        <v>4.8628305649922963</v>
+        <v>5.5861553304508273</v>
       </c>
       <c r="L6">
-        <v>65.966806177134529</v>
+        <v>5.6821531565834071</v>
       </c>
       <c r="M6">
-        <v>-15.804275688583189</v>
+        <v>52.823657320447523</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>13.76279651415526</v>
+      </c>
+      <c r="D7">
+        <v>8.2382680973596472</v>
+      </c>
+      <c r="E7">
+        <v>-3.0343336659552089</v>
+      </c>
       <c r="F7">
-        <v>-100</v>
+        <v>-21.458867398030641</v>
+      </c>
+      <c r="G7">
+        <v>-3.9347131035740128</v>
+      </c>
+      <c r="H7">
+        <v>25.16337854715669</v>
+      </c>
+      <c r="I7">
+        <v>9.9796897882661071</v>
+      </c>
+      <c r="J7">
+        <v>4.1665881609739213</v>
       </c>
       <c r="K7">
-        <v>594.99587881519506</v>
+        <v>-13.36319297768466</v>
       </c>
       <c r="L7">
-        <v>-35.694845499714262</v>
+        <v>-16.70491579626551</v>
       </c>
       <c r="M7">
-        <v>33.117304063675881</v>
+        <v>38.944431541168107</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -685,37 +697,37 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1.9509046129349821</v>
+        <v>33.561417955918351</v>
       </c>
       <c r="D8">
-        <v>25.724571876995761</v>
+        <v>-13.016571014004199</v>
       </c>
       <c r="E8">
-        <v>-20.254580441158279</v>
+        <v>-4.67285046256195</v>
       </c>
       <c r="F8">
-        <v>-4.0005395997821278</v>
+        <v>-4.0916760956159823</v>
       </c>
       <c r="G8">
-        <v>28.199270376517621</v>
+        <v>15.10132747589096</v>
       </c>
       <c r="H8">
-        <v>5.8734650714932473</v>
+        <v>4.7352252169640003</v>
       </c>
       <c r="I8">
-        <v>-16.436617828497539</v>
+        <v>-1.034674074882058</v>
       </c>
       <c r="J8">
-        <v>-1.571989912615843</v>
+        <v>8.8752813778254822</v>
       </c>
       <c r="K8">
-        <v>5.5861553304508273</v>
+        <v>-11.96267959173993</v>
       </c>
       <c r="L8">
-        <v>5.6821531565834071</v>
+        <v>6.4890878401119529</v>
       </c>
       <c r="M8">
-        <v>52.823657320447523</v>
+        <v>23.181996125735949</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -723,37 +735,37 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>13.76279651415526</v>
+        <v>-0.23464265183303609</v>
       </c>
       <c r="D9">
-        <v>8.2382680973596472</v>
+        <v>-27.307221059557818</v>
       </c>
       <c r="E9">
-        <v>-3.0343336659552089</v>
+        <v>3.594043750816442</v>
       </c>
       <c r="F9">
-        <v>-21.458867398030641</v>
+        <v>9.3132311175427578</v>
       </c>
       <c r="G9">
-        <v>-3.9347131035740128</v>
+        <v>3.8265407596905301</v>
       </c>
       <c r="H9">
-        <v>25.16337854715669</v>
+        <v>0.83868016645064547</v>
       </c>
       <c r="I9">
-        <v>9.9796897882661071</v>
+        <v>-22.781792498808901</v>
       </c>
       <c r="J9">
-        <v>4.1665881609739213</v>
+        <v>8.2942165467611382</v>
       </c>
       <c r="K9">
-        <v>-13.36319297768466</v>
+        <v>2.075121838826397</v>
       </c>
       <c r="L9">
-        <v>-16.70491579626551</v>
+        <v>-3.121163142385226</v>
       </c>
       <c r="M9">
-        <v>38.944431541168107</v>
+        <v>30.114145102199021</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -761,37 +773,37 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>33.561417955918351</v>
+        <v>12.133708612158481</v>
       </c>
       <c r="D10">
-        <v>-13.016571014004199</v>
+        <v>-11.31089180362677</v>
       </c>
       <c r="E10">
-        <v>-4.67285046256195</v>
+        <v>24.64567773530797</v>
       </c>
       <c r="F10">
-        <v>-4.0916760956159823</v>
+        <v>6.8172784281897556</v>
       </c>
       <c r="G10">
-        <v>15.10132747589096</v>
+        <v>-8.6311356151306651</v>
       </c>
       <c r="H10">
-        <v>4.7352252169640003</v>
+        <v>-5.8069256734648347</v>
       </c>
       <c r="I10">
-        <v>-1.034674074882058</v>
+        <v>30.799266800018319</v>
       </c>
       <c r="J10">
-        <v>8.8752813778254822</v>
+        <v>6.1790964262183801</v>
       </c>
       <c r="K10">
-        <v>-11.96267959173993</v>
+        <v>32.407363688682032</v>
       </c>
       <c r="L10">
-        <v>6.4890878401119529</v>
+        <v>-17.117538853827579</v>
       </c>
       <c r="M10">
-        <v>23.181996125735949</v>
+        <v>12.28144119653957</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -799,37 +811,37 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.23464265183303609</v>
+        <v>19.506576191047781</v>
       </c>
       <c r="D11">
-        <v>-27.307221059557818</v>
+        <v>16.806596059332229</v>
       </c>
       <c r="E11">
-        <v>3.594043750816442</v>
+        <v>10.05665948742943</v>
       </c>
       <c r="F11">
-        <v>9.3132311175427578</v>
+        <v>-31.487332500273371</v>
       </c>
       <c r="G11">
-        <v>3.8265407596905301</v>
+        <v>34.476663812952438</v>
       </c>
       <c r="H11">
-        <v>0.83868016645064547</v>
+        <v>63.276824769772148</v>
       </c>
       <c r="I11">
-        <v>-22.781792498808901</v>
+        <v>11.99464318509188</v>
       </c>
       <c r="J11">
-        <v>8.2942165467611382</v>
+        <v>7.322214110141716</v>
       </c>
       <c r="K11">
-        <v>2.075121838826397</v>
+        <v>14.856724685275189</v>
       </c>
       <c r="L11">
-        <v>-3.121163142385226</v>
+        <v>-13.84523344588218</v>
       </c>
       <c r="M11">
-        <v>30.114145102199021</v>
+        <v>9.9355210749403753</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -837,198 +849,37 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-100</v>
+        <v>-20.863551761632849</v>
+      </c>
+      <c r="D12">
+        <v>73.93334166282385</v>
+      </c>
+      <c r="E12">
+        <v>32.705517134319649</v>
+      </c>
+      <c r="F12">
+        <v>-3.3214850600471908</v>
+      </c>
+      <c r="G12">
+        <v>-17.83660575579902</v>
       </c>
       <c r="H12">
-        <v>-100</v>
+        <v>10.81537681564596</v>
+      </c>
+      <c r="I12">
+        <v>28.07555958940636</v>
+      </c>
+      <c r="J12">
+        <v>46.341839876041583</v>
+      </c>
+      <c r="K12">
+        <v>15.35826339809881</v>
       </c>
       <c r="L12">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>12.133708612158481</v>
-      </c>
-      <c r="D13">
-        <v>-11.31089180362677</v>
-      </c>
-      <c r="E13">
-        <v>24.64567773530797</v>
-      </c>
-      <c r="F13">
-        <v>6.8172784281897556</v>
-      </c>
-      <c r="G13">
-        <v>-8.6311356151306651</v>
-      </c>
-      <c r="H13">
-        <v>-5.8069256734648347</v>
-      </c>
-      <c r="I13">
-        <v>30.799266800018319</v>
-      </c>
-      <c r="J13">
-        <v>6.1790964262183801</v>
-      </c>
-      <c r="K13">
-        <v>32.407363688682032</v>
-      </c>
-      <c r="L13">
-        <v>-17.117538853827579</v>
-      </c>
-      <c r="M13">
-        <v>12.28144119653957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>19.506576191047781</v>
-      </c>
-      <c r="D14">
-        <v>16.806596059332229</v>
-      </c>
-      <c r="E14">
-        <v>10.05665948742943</v>
-      </c>
-      <c r="F14">
-        <v>-31.487332500273371</v>
-      </c>
-      <c r="G14">
-        <v>34.476663812952438</v>
-      </c>
-      <c r="H14">
-        <v>63.276824769772148</v>
-      </c>
-      <c r="I14">
-        <v>11.99464318509188</v>
-      </c>
-      <c r="J14">
-        <v>7.322214110141716</v>
-      </c>
-      <c r="K14">
-        <v>14.856724685275189</v>
-      </c>
-      <c r="L14">
-        <v>-13.84523344588218</v>
-      </c>
-      <c r="M14">
-        <v>9.9355210749403753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>-20.863551761632849</v>
-      </c>
-      <c r="D15">
-        <v>73.93334166282385</v>
-      </c>
-      <c r="E15">
-        <v>32.705517134319649</v>
-      </c>
-      <c r="F15">
-        <v>-3.3214850600471908</v>
-      </c>
-      <c r="G15">
-        <v>-17.83660575579902</v>
-      </c>
-      <c r="H15">
-        <v>10.81537681564596</v>
-      </c>
-      <c r="I15">
-        <v>28.07555958940636</v>
-      </c>
-      <c r="J15">
-        <v>46.341839876041583</v>
-      </c>
-      <c r="K15">
-        <v>15.35826339809881</v>
-      </c>
-      <c r="L15">
         <v>20.83561240297913</v>
       </c>
-      <c r="M15">
+      <c r="M12">
         <v>23.512804154751421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>-100</v>
-      </c>
-      <c r="H17">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>-15.329377517895161</v>
-      </c>
-      <c r="H18">
-        <v>-100</v>
-      </c>
-      <c r="J18">
-        <v>-100</v>
-      </c>
-      <c r="M18">
-        <v>49.262000843427593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>16.872761869257118</v>
-      </c>
-      <c r="D19">
-        <v>4.0082796015321884</v>
-      </c>
-      <c r="E19">
-        <v>1.906672233918862</v>
-      </c>
-      <c r="F19">
-        <v>-13.119354110305339</v>
-      </c>
-      <c r="G19">
-        <v>6.7426225527304302</v>
-      </c>
-      <c r="H19">
-        <v>19.049583999470759</v>
-      </c>
-      <c r="I19">
-        <v>7.4069923860782341</v>
-      </c>
-      <c r="J19">
-        <v>10.976724051794561</v>
-      </c>
-      <c r="K19">
-        <v>2.8159140489394372</v>
-      </c>
-      <c r="L19">
-        <v>-5.27570967320331</v>
-      </c>
-      <c r="M19">
-        <v>25.089064431626781</v>
       </c>
     </row>
   </sheetData>
